--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8C74BE-6B1F-6F46-BE6E-6EB33D1770F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483FF5B-B24D-1240-9CA3-7D12D1E83EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="500" windowWidth="18420" windowHeight="20500" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
+    <workbookView xWindow="15180" yWindow="500" windowWidth="18420" windowHeight="20500" activeTab="2" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1028">
   <si>
     <t>유니스왑</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3250,6 +3250,80 @@
   </si>
   <si>
     <t>심볼</t>
+  </si>
+  <si>
+    <t>TAO	TAOUSDT
+LTC	LTCUSDT
+YFI	YFIUSDT
+MKR	MKRUSDT
+PAXG	PAXGUSDT
+WBETH	WBETHUSDT
+USDC	USDCUSDT
+OM	OMUSDT
+QNT	QNTUSDT
+DEXE	DEXEUSDT
+AR	ARUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAOUSDT,LTCUSDT,YFIUSDT;MKRUSDT,PAXGUSDT,WBETHUSDT;USDCUSDT,OMUSDT,QNTUSDT;DEXEUSDT,ARUSDT,BNSOLUSDT;INJUSDT,FDUSDUSDT,UNIUSDT;ORDIUSDT,ZENUSDT,RAYUSDT;COMPUSDT,RUNEUSDT,EGLDUSDT;TONUSDT,RENDERUSDT,TRBUSDT;WLDUSDT,ICPUSDT,FILUSDT;WIFUSDT,LDOUSDT,ZECUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DASHUSDT,METISUSDT,ENAUSDT;TIAUSDT,USUALUSDT,EIGENUSDT;SSVUSDT,JUPUSDT,GNOUSDT;BANANAUSDT,BIFIUSDT,VANAUSDT;IOUSDT,KSMUSDT,ILVUSDT;PENDLEUSDT,LPTUSDT,OPUSDT;FETUSDT,JTOUSDT,GMXUSDT;CRVUSDT,FTTUSDT,AIXBTUSDT;ETHFIUSDT,AUCTIONUSDT,FARMUSDT;MOVEUSDT,OMNIUSDT,MEUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OGUSDT,SUSDT,ARKMUSDT;BADGERUSDT,DYDXUSDT,SUSHIUSDT;CAKEUSDT,XVSUSDT,SANTOSUSDT;ALCXUSDT,MOVRUSDT,NMRUSDT;APEUSDT,DCRUSDT,PNUTUSDT;FXSUSDT,BELUSDT,SNXUSDT;SAGAUSDT,PYRUSDT,CVXUSDT;RPLUSDT,PHBUSDT,CYBERUSDT;AGLDUSDT,MLNUSDT,KDAUSDT;ACHUSDT,MANTAUSDT,EURIUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WUSDT,POLUSDT,LQTYUSDT;PROMUSDT,RONINUSDT,CREAMUSDT;LAZIOUSDT,ORCAUSDT,BIOUSDT;RLCUSDT,TNSRUSDT,THEUSDT;ACEUSDT,AIUSDT,COWUSDT;CETUSUSDT,JASMYUSDT,ACTUSDT;SCRUSDT,SUPERUSDT,DEGOUSDT;HIGHUSDT,AVAUSDT,UMAUSDT;LUMIAUSDT,DYMUSDT,STRKUSDT;WINGUSDT,FLUXUSDT,FORTHUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API3USDT,NEXOUSDT,TWTUSDT;ACXUSDT,LITUSDT,AEVOUSDT;CGPTUSDT,COOKIEUSDT,ANIMEUSDT;PHAUSDT,CFXUSDT,ALICEUSDT;SOLVUSDT,BALUSDT,DUSDT;SKLUSDT,RADUSDT,XAIUSDT;PENGUUSDT,ZKUSDT,AXLUSDT;PYTHUSDT,BANDUSDT,ALPINEUSDT;LUNAUSDT,HOOKUSDT,PORTOUSDT;FIROUSDT,BARUSDT,KAIAUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERNUSDT,FIDAUSDT,MAGICUSDT;GALAUSDT,ATMUSDT,STGUSDT;YGGUSDT,CITYUSDT,GNSUSDT;XNOUSDT,TKOUSDT,ACMUSDT;SYNUSDT,TUSDUSDT,FISUSDT;JUVUSDT,ASRUSDT,BBUSDT;PORTALUSDT,CTKUSDT,USDPUSDT;PERPUSDT,MTLUSDT,PIXELUSDT;SCRTUSDT,EDUUSDT,CHRUSDT;VICUSDT,DIAUSDT,CTXCUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFPUSDT,OSMOUSDT,ROSEUSDT;GHSTUSDT,ALTUSDT,LISTAUSDT;BICOUSDT,HFTUSDT,ENJUSDT;MBOXUSDT,VANRYUSDT,GTCUSDT;COTIUSDT,CATIUSDT,LRCUSDT;CHESSUSDT,JOEUSDT,BURGERUSDT;NTRNUSDT,BAKEUSDT,SLFUSDT;VELODROMEUSDT,SFPUSDT,GLMRUSDT;PROSUSDT,COMBOUSDT,HIFIUSDT;VOXELUSDT,C98USDT,BNXUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOOUSDT,RAREUSDT,ADXUSDT;RSRUSDT,BNTUSDT,TRUUSDT;DFUSDT,CLVUSDT,OXTUSDT;VIBUSDT,ACAUSDT,ATAUSDT;AEURUSDT,GUSDT,MAVUSDT;PEOPLEUSDT,NULSUSDT,OGNUSDT;AUDIOUSDT,ICXUSDT,BEAMXUSDT;DUSKUSDT,1000CATUSDT,KMDUSDT;DODOUSDT,CTSIUSDT,UTKUSDT;UFTUSDT,ONEUSDT,SPELLUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMEUSDT,ALPHAUSDT,PIVXUSDT;TURBOUSDT,ALPACAUSDT,HARDUSDT;WANUSDT,LTOUSDT,VIDTUSDT;XVGUSDT,REZUSDT,ARDRUSDT;SYSUSDT,LOKAUSDT,REQUSDT;RDNTUSDT,MDTUSDT,IOTXUSDT;ARPAUSDT,RIFUSDT,NKNUSDT;BOMEUSDT,VTHOUSDT,PONDUSDT;WAXPUSDT,FLMUSDT,BSWUSDT;AERGOUSDT,AMPUSDT,ASTUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEXUSDT,REIUSDT,CELRUSDT;BETAUSDT,NOTUSDT,RVNUSDT;DGBUSDT,CKBUSDT,FIOUSDT;USTCUSDT,NEIROUSDT,PDAUSDT;SUNUSDT,QUICKUSDT,DATAUSDT;TLMUSDT,AMBUSDT,LEVERUSDT;QKCUSDT,1MBABYDOGEUSDT,COSUSDT;QIUSDT,MBLUSDT,HMSTRUSDT;STMXUSDT,TROYUSDT,HOTUSDT;LINAUSDT,VITEUSDT,1000SATSUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOKIUSDT,SLPUSDT,PEPEUSDT;DENTUSDT,FUNUSDT,BONKUSDT;DOGSUSDT,LUNCUSDT,WINUSDT;BTTCUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이낸스 코인 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-UNI,KRW-PEPE,KRW-ONDO;KRW-MNT,KRW-POL,KRW-CRO;KRW-RENDER,KRW-INJ,KRW-BONK;KRW-MOVE,KRW-JUP,KRW-PYTH;KRW-BTT,KRW-BSV,KRW-BEAM;KRW-W,KRW-AKT,KRW-PENDLE;KRW-SAFE,KRW-VTHO,KRW-CTC;KRW-MEW,KRW-CKB,KRW-MOCA;KRW-ATH,KRW-UXLINK,KRW-ZETA;KRW-VANA,KRW-ANIME,KRW-ME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-DRIFT,KRW-G,KRW-XEC;KRW-WAVES,KRW-WAXP,KRW-ICX;KRW-BIGTIME,KRW-BLAST,KRW-TAIKO;KRW-BORA,KRW-MVL,KRW-AGLD;KRW-DKA,KRW-CARV,KRW-ORBS;KRW-MLK,KRW-GAME2,KRW-MED;KRW-MTL,KRW-AUCTION,KRW-CBK;KRW-TOKAMAK,KRW-HIFI,KRW-QKC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3301,12 +3375,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3642,10 +3719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044EA164-D648-B941-BFC4-3172F959F7EC}">
-  <dimension ref="B1:F56"/>
+  <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3654,7 +3731,7 @@
     <col min="13" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1">
+    <row r="1" spans="2:8" ht="30" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3662,7 +3739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="30" customHeight="1">
+    <row r="2" spans="2:8" ht="30" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1">
+    <row r="3" spans="2:8" ht="30" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3690,7 +3767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1">
+    <row r="4" spans="2:8" ht="30" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3703,8 +3780,11 @@
       <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1">
+      <c r="H4" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3717,8 +3797,11 @@
       <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1">
+      <c r="H5" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3732,7 +3815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1">
+    <row r="7" spans="2:8" ht="30" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3746,7 +3829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1">
+    <row r="8" spans="2:8" ht="30" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3760,7 +3843,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1">
+    <row r="9" spans="2:8" ht="30" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -3774,7 +3857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1">
+    <row r="10" spans="2:8" ht="30" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3788,7 +3871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1">
+    <row r="11" spans="2:8" ht="30" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
@@ -3802,7 +3885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1">
+    <row r="12" spans="2:8" ht="30" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
@@ -3816,7 +3899,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1">
+    <row r="13" spans="2:8" ht="30" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3830,7 +3913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1">
+    <row r="14" spans="2:8" ht="30" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
@@ -3844,7 +3927,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1">
+    <row r="15" spans="2:8" ht="30" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3858,7 +3941,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1">
+    <row r="16" spans="2:8" ht="30" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
@@ -4301,10 +4384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB809947-5868-C945-A3AF-72B6816E4DD7}">
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -4313,7 +4396,7 @@
     <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" t="s">
         <v>1010</v>
       </c>
@@ -4321,7 +4404,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" t="s">
         <v>233</v>
       </c>
@@ -4329,7 +4412,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
+    <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" t="s">
         <v>235</v>
       </c>
@@ -4337,15 +4420,18 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+    <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" t="s">
         <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
+      <c r="E4" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -4353,7 +4439,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+    <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" t="s">
         <v>241</v>
       </c>
@@ -4361,7 +4447,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
+    <row r="7" spans="1:5" ht="30" customHeight="1">
       <c r="A7" t="s">
         <v>243</v>
       </c>
@@ -4369,7 +4455,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
+    <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -4377,7 +4463,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
+    <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -4385,7 +4471,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
+    <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" t="s">
         <v>249</v>
       </c>
@@ -4393,7 +4479,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
+    <row r="11" spans="1:5" ht="30" customHeight="1">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -4401,7 +4487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1">
+    <row r="12" spans="1:5" ht="30" customHeight="1">
       <c r="A12" t="s">
         <v>253</v>
       </c>
@@ -4409,7 +4495,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1">
+    <row r="13" spans="1:5" ht="30" customHeight="1">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -4417,7 +4503,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -4425,7 +4511,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
+    <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -4433,7 +4519,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
+    <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -7665,12 +7751,2534 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76AF80E-437F-0244-B769-D067FE1B7DB0}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F311"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>965</v>
+      </c>
+      <c r="B7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>925</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B10" t="s">
+        <v>790</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>923</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>732</v>
+      </c>
+      <c r="B17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>830</v>
+      </c>
+      <c r="B21" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>897</v>
+      </c>
+      <c r="B23" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>901</v>
+      </c>
+      <c r="B25" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>975</v>
+      </c>
+      <c r="B26" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>573</v>
+      </c>
+      <c r="B27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>969</v>
+      </c>
+      <c r="B29" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>612</v>
+      </c>
+      <c r="B30" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>664</v>
+      </c>
+      <c r="B33" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>887</v>
+      </c>
+      <c r="B35" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>936</v>
+      </c>
+      <c r="B36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>479</v>
+      </c>
+      <c r="B37" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>858</v>
+      </c>
+      <c r="B38" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>546</v>
+      </c>
+      <c r="B40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>581</v>
+      </c>
+      <c r="B44" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>608</v>
+      </c>
+      <c r="B45" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>578</v>
+      </c>
+      <c r="B46" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>728</v>
+      </c>
+      <c r="B49" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>500</v>
+      </c>
+      <c r="B50" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>589</v>
+      </c>
+      <c r="B51" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>526</v>
+      </c>
+      <c r="B54" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>715</v>
+      </c>
+      <c r="B62" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>833</v>
+      </c>
+      <c r="B63" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>471</v>
+      </c>
+      <c r="B66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>875</v>
+      </c>
+      <c r="B67" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>995</v>
+      </c>
+      <c r="B69" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>837</v>
+      </c>
+      <c r="B70" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>679</v>
+      </c>
+      <c r="B72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>447</v>
+      </c>
+      <c r="B75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>767</v>
+      </c>
+      <c r="B76" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>530</v>
+      </c>
+      <c r="B77" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B78" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>835</v>
+      </c>
+      <c r="B80" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>783</v>
+      </c>
+      <c r="B81" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>434</v>
+      </c>
+      <c r="B82" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>826</v>
+      </c>
+      <c r="B83" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>757</v>
+      </c>
+      <c r="B84" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>674</v>
+      </c>
+      <c r="B87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>596</v>
+      </c>
+      <c r="B88" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>643</v>
+      </c>
+      <c r="B90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>629</v>
+      </c>
+      <c r="B94" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>822</v>
+      </c>
+      <c r="B96" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>424</v>
+      </c>
+      <c r="B97" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>610</v>
+      </c>
+      <c r="B98" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>730</v>
+      </c>
+      <c r="B99" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>893</v>
+      </c>
+      <c r="B102" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>885</v>
+      </c>
+      <c r="B103" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>422</v>
+      </c>
+      <c r="B106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>397</v>
+      </c>
+      <c r="B107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>839</v>
+      </c>
+      <c r="B110" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>871</v>
+      </c>
+      <c r="B111" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>563</v>
+      </c>
+      <c r="B113" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>919</v>
+      </c>
+      <c r="B115" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>636</v>
+      </c>
+      <c r="B116" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>473</v>
+      </c>
+      <c r="B117" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>868</v>
+      </c>
+      <c r="B118" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>973</v>
+      </c>
+      <c r="B119" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>516</v>
+      </c>
+      <c r="B120" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>520</v>
+      </c>
+      <c r="B121" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>694</v>
+      </c>
+      <c r="B123" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>915</v>
+      </c>
+      <c r="B124" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>622</v>
+      </c>
+      <c r="B126" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>401</v>
+      </c>
+      <c r="B128" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>416</v>
+      </c>
+      <c r="B129" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>755</v>
+      </c>
+      <c r="B131" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>399</v>
+      </c>
+      <c r="B132" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>852</v>
+      </c>
+      <c r="B134" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>323</v>
+      </c>
+      <c r="B135" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>437</v>
+      </c>
+      <c r="B136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>845</v>
+      </c>
+      <c r="B137" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>793</v>
+      </c>
+      <c r="B138" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>985</v>
+      </c>
+      <c r="B139" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>746</v>
+      </c>
+      <c r="B140" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>327</v>
+      </c>
+      <c r="B144" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>638</v>
+      </c>
+      <c r="B146" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>569</v>
+      </c>
+      <c r="B147" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>778</v>
+      </c>
+      <c r="B148" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>508</v>
+      </c>
+      <c r="B149" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>594</v>
+      </c>
+      <c r="B151" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>490</v>
+      </c>
+      <c r="B152" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>502</v>
+      </c>
+      <c r="B153" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>535</v>
+      </c>
+      <c r="B155" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>860</v>
+      </c>
+      <c r="B157" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>406</v>
+      </c>
+      <c r="B159" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>548</v>
+      </c>
+      <c r="B160" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>991</v>
+      </c>
+      <c r="B161" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>889</v>
+      </c>
+      <c r="B162" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>877</v>
+      </c>
+      <c r="B164" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>911</v>
+      </c>
+      <c r="B165" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>510</v>
+      </c>
+      <c r="B166" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>592</v>
+      </c>
+      <c r="B167" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>776</v>
+      </c>
+      <c r="B170" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>427</v>
+      </c>
+      <c r="B171" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>926</v>
+      </c>
+      <c r="B172" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>753</v>
+      </c>
+      <c r="B173" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B174" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>761</v>
+      </c>
+      <c r="B175" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>841</v>
+      </c>
+      <c r="B176" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>475</v>
+      </c>
+      <c r="B177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>951</v>
+      </c>
+      <c r="B179" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>457</v>
+      </c>
+      <c r="B180" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>430</v>
+      </c>
+      <c r="B181" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>696</v>
+      </c>
+      <c r="B182" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>736</v>
+      </c>
+      <c r="B183" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>824</v>
+      </c>
+      <c r="B184" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>541</v>
+      </c>
+      <c r="B185" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>620</v>
+      </c>
+      <c r="B187" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>350</v>
+      </c>
+      <c r="B188" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>560</v>
+      </c>
+      <c r="B189" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>104</v>
+      </c>
+      <c r="B190" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>651</v>
+      </c>
+      <c r="B191" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>941</v>
+      </c>
+      <c r="B192" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>550</v>
+      </c>
+      <c r="B193" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>420</v>
+      </c>
+      <c r="B194" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>393</v>
+      </c>
+      <c r="B195" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>121</v>
+      </c>
+      <c r="B196" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>587</v>
+      </c>
+      <c r="B198" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>383</v>
+      </c>
+      <c r="B199" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>705</v>
+      </c>
+      <c r="B200" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>321</v>
+      </c>
+      <c r="B201" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>847</v>
+      </c>
+      <c r="B202" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>943</v>
+      </c>
+      <c r="B203" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>843</v>
+      </c>
+      <c r="B204" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>147</v>
+      </c>
+      <c r="B205" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>781</v>
+      </c>
+      <c r="B206" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>228</v>
+      </c>
+      <c r="B208" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>957</v>
+      </c>
+      <c r="B209" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>365</v>
+      </c>
+      <c r="B211" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>979</v>
+      </c>
+      <c r="B212" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>797</v>
+      </c>
+      <c r="B213" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>251</v>
+      </c>
+      <c r="B214" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>828</v>
+      </c>
+      <c r="B215" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>907</v>
+      </c>
+      <c r="B217" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>454</v>
+      </c>
+      <c r="B218" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>409</v>
+      </c>
+      <c r="B219" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>185</v>
+      </c>
+      <c r="B220" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>949</v>
+      </c>
+      <c r="B221" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>239</v>
+      </c>
+      <c r="B222" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>306</v>
+      </c>
+      <c r="B223" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>255</v>
+      </c>
+      <c r="B224" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>118</v>
+      </c>
+      <c r="B225" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>647</v>
+      </c>
+      <c r="B226" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>748</v>
+      </c>
+      <c r="B227" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>709</v>
+      </c>
+      <c r="B228" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>717</v>
+      </c>
+      <c r="B229" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>141</v>
+      </c>
+      <c r="B230" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>144</v>
+      </c>
+      <c r="B231" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>340</v>
+      </c>
+      <c r="B232" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>469</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>604</v>
+      </c>
+      <c r="B235" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>177</v>
+      </c>
+      <c r="B237" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>938</v>
+      </c>
+      <c r="B238" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>917</v>
+      </c>
+      <c r="B239" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>724</v>
+      </c>
+      <c r="B240" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>854</v>
+      </c>
+      <c r="B241" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>662</v>
+      </c>
+      <c r="B242" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>759</v>
+      </c>
+      <c r="B244" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>909</v>
+      </c>
+      <c r="B245" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>274</v>
+      </c>
+      <c r="B246" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>556</v>
+      </c>
+      <c r="B247" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>961</v>
+      </c>
+      <c r="B248" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>634</v>
+      </c>
+      <c r="B249" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>953</v>
+      </c>
+      <c r="B250" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>993</v>
+      </c>
+      <c r="B251" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>813</v>
+      </c>
+      <c r="B252" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>296</v>
+      </c>
+      <c r="B253" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>879</v>
+      </c>
+      <c r="B254" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>624</v>
+      </c>
+      <c r="B255" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>811</v>
+      </c>
+      <c r="B256" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>800</v>
+      </c>
+      <c r="B257" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>657</v>
+      </c>
+      <c r="B258" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>94</v>
+      </c>
+      <c r="B259" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>300</v>
+      </c>
+      <c r="B260" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>817</v>
+      </c>
+      <c r="B261" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>698</v>
+      </c>
+      <c r="B262" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>367</v>
+      </c>
+      <c r="B263" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>80</v>
+      </c>
+      <c r="B264" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>774</v>
+      </c>
+      <c r="B265" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>138</v>
+      </c>
+      <c r="B266" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>512</v>
+      </c>
+      <c r="B267" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>372</v>
+      </c>
+      <c r="B268" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>253</v>
+      </c>
+      <c r="B269" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>283</v>
+      </c>
+      <c r="B270" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>304</v>
+      </c>
+      <c r="B271" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>576</v>
+      </c>
+      <c r="B272" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>804</v>
+      </c>
+      <c r="B273" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>395</v>
+      </c>
+      <c r="B274" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>346</v>
+      </c>
+      <c r="B275" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>701</v>
+      </c>
+      <c r="B276" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>107</v>
+      </c>
+      <c r="B277" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>129</v>
+      </c>
+      <c r="B278" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>87</v>
+      </c>
+      <c r="B279" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>506</v>
+      </c>
+      <c r="B280" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>934</v>
+      </c>
+      <c r="B281" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>692</v>
+      </c>
+      <c r="B282" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>743</v>
+      </c>
+      <c r="B283" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>126</v>
+      </c>
+      <c r="B284" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>791</v>
+      </c>
+      <c r="B285" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>445</v>
+      </c>
+      <c r="B286" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>891</v>
+      </c>
+      <c r="B287" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>281</v>
+      </c>
+      <c r="B288" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>616</v>
+      </c>
+      <c r="B289" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>231</v>
+      </c>
+      <c r="B290" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>237</v>
+      </c>
+      <c r="B291" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>418</v>
+      </c>
+      <c r="B292" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>786</v>
+      </c>
+      <c r="B293" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>649</v>
+      </c>
+      <c r="B294" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>565</v>
+      </c>
+      <c r="B295" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>862</v>
+      </c>
+      <c r="B296" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>905</v>
+      </c>
+      <c r="B297" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>571</v>
+      </c>
+      <c r="B298" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>618</v>
+      </c>
+      <c r="B299" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>955</v>
+      </c>
+      <c r="B300" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>235</v>
+      </c>
+      <c r="B301" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>514</v>
+      </c>
+      <c r="B302" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>849</v>
+      </c>
+      <c r="B303" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>182</v>
+      </c>
+      <c r="B305" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>528</v>
+      </c>
+      <c r="B306" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>27</v>
+      </c>
+      <c r="B307" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>465</v>
+      </c>
+      <c r="B308" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>640</v>
+      </c>
+      <c r="B309" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>971</v>
+      </c>
+      <c r="B310" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>379</v>
+      </c>
+      <c r="B311" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483FF5B-B24D-1240-9CA3-7D12D1E83EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FAB9F-46E1-A849-AA95-905E6773863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="500" windowWidth="18420" windowHeight="20500" activeTab="2" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1030">
   <si>
     <t>유니스왑</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3323,6 +3323,14 @@
   </si>
   <si>
     <t>KRW-DRIFT,KRW-G,KRW-XEC;KRW-WAVES,KRW-WAXP,KRW-ICX;KRW-BIGTIME,KRW-BLAST,KRW-TAIKO;KRW-BORA,KRW-MVL,KRW-AGLD;KRW-DKA,KRW-CARV,KRW-ORBS;KRW-MLK,KRW-GAME2,KRW-MED;KRW-MTL,KRW-AUCTION,KRW-CBK;KRW-TOKAMAK,KRW-HIFI,KRW-QKC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USDP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUSD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3343,7 +3351,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Apple SD Gothic Neo Regular"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3721,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044EA164-D648-B941-BFC4-3172F959F7EC}">
   <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -7754,7 +7762,7 @@
   <dimension ref="A2:F311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7918,7 +7926,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>732</v>
       </c>
@@ -7926,7 +7934,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>1006</v>
       </c>
@@ -7934,7 +7942,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7942,7 +7950,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -7950,7 +7958,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>830</v>
       </c>
@@ -7958,23 +7966,29 @@
         <v>831</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>477</v>
       </c>
       <c r="B22" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>897</v>
       </c>
       <c r="B23" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -7982,7 +7996,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>901</v>
       </c>
@@ -7990,7 +8004,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>975</v>
       </c>
@@ -7998,7 +8012,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>573</v>
       </c>
@@ -8006,7 +8020,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>504</v>
       </c>
@@ -8014,7 +8028,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>969</v>
       </c>
@@ -8022,7 +8036,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>612</v>
       </c>
@@ -8030,7 +8044,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>1004</v>
       </c>
@@ -8038,7 +8052,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>443</v>
       </c>

--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FAB9F-46E1-A849-AA95-905E6773863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA302E9-769E-054A-8F2D-B72B9427622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2340" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
@@ -3361,12 +3361,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3383,7 +3395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3392,6 +3404,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7762,7 +7780,7 @@
   <dimension ref="A2:F311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7812,6 +7830,7 @@
       <c r="B6" t="s">
         <v>742</v>
       </c>
+      <c r="C6" s="3"/>
       <c r="D6" t="s">
         <v>1013</v>
       </c>
@@ -7823,6 +7842,7 @@
       <c r="B7" t="s">
         <v>966</v>
       </c>
+      <c r="C7" s="3"/>
       <c r="D7" t="s">
         <v>1014</v>
       </c>
@@ -7834,6 +7854,7 @@
       <c r="B8" t="s">
         <v>925</v>
       </c>
+      <c r="C8" s="3"/>
       <c r="D8" t="s">
         <v>1015</v>
       </c>
@@ -7845,6 +7866,7 @@
       <c r="B9" t="s">
         <v>720</v>
       </c>
+      <c r="C9" s="3"/>
       <c r="D9" t="s">
         <v>1016</v>
       </c>
@@ -7856,6 +7878,7 @@
       <c r="B10" t="s">
         <v>790</v>
       </c>
+      <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>1017</v>
       </c>
@@ -7867,6 +7890,7 @@
       <c r="B11" t="s">
         <v>453</v>
       </c>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
         <v>1018</v>
       </c>
@@ -7878,6 +7902,7 @@
       <c r="B12" t="s">
         <v>295</v>
       </c>
+      <c r="C12" s="4"/>
       <c r="D12" t="s">
         <v>1019</v>
       </c>
@@ -7889,6 +7914,7 @@
       <c r="B13" t="s">
         <v>363</v>
       </c>
+      <c r="C13" s="4"/>
       <c r="D13" t="s">
         <v>1020</v>
       </c>
@@ -7900,6 +7926,7 @@
       <c r="B14" t="s">
         <v>580</v>
       </c>
+      <c r="C14" s="4"/>
       <c r="D14" t="s">
         <v>1021</v>
       </c>
@@ -7911,6 +7938,7 @@
       <c r="B15" t="s">
         <v>499</v>
       </c>
+      <c r="C15" s="4"/>
       <c r="D15" t="s">
         <v>1022</v>
       </c>
@@ -7922,6 +7950,7 @@
       <c r="B16" t="s">
         <v>923</v>
       </c>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>1023</v>
       </c>

--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA302E9-769E-054A-8F2D-B72B9427622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C539F7-5732-ED49-9F6D-14A46AFB1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="37300" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="바낸 코인 리스트" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="업비트_빗썸" sheetId="1" r:id="rId1"/>
+    <sheet name="바이낸스" sheetId="2" r:id="rId2"/>
+    <sheet name="바낸 코인 리스트" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1038">
   <si>
     <t>유니스왑</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3331,6 +3331,38 @@
   </si>
   <si>
     <t>TUSD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTCUSDT,ETHUSDT,XRPUSDT;DOGEUSDT,SOLUSDT,ADAUSDT;TRXUSDT,AVAXUSDT;LINKUSDT,SUIUSDT,XLMUSDT;SHIBUSDT,HBARUSDT,DOTUSDT;BCHUSDT,NEARUSDT,APTUSDT;AAVEUSDT,VETUSDT,ETCUSDT;ALGOUSDT,ARBUSDT;ATOMUSDT,STXUSDT,THETAUSDT;IMXUSDT,GRTUSDT,SEIUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANDUSDT,EOSUSDT,XTZUSDT;IOTAUSDT,FLOWUSDT,ENSUSDT;NEOUSDT,MANAUSDT,AXSUSDT;CHZUSDT,XECUSDT,MINAUSDT;KAVAUSDT,1INCHUSDT,ZROUSDT;BLURUSDT,TFUELUSDT,ASTRUSDT;ZILUSDT,ZRXUSDT,JSTUSDT;GLMUSDT,IDUSDT,BATUSDT;CELOUSDT,ANKRUSDT,QTUMUSDT;SCUSDT,GASUSDT,GMTUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELFUSDT,TUSDT,MASKUSDT;POLYXUSDT,HIVEUSDT,ONTUSDT;SXPUSDT,STORJUSDT,SNTUSDT;LSKUSDT,CVCUSDT,POWRUSDT;IQUSDT,IOSTUSDT,STPTUSDT;STRAXUSDT,ONGUSDT,PUNDIXUSDT;STEEMUSDT,KNCUSDT,ARKUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 리스트_2024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-BTC,KRW-ETH,KRW-XRP;KRW-DOGE,KRW-SOL,KRW-ADA;KRW-TRX,KRW-AVAX;KRW-LINK,KRW-SUI,KRW-XLM;KRW-SHIB,KRW-HBAR,KRW-DOT;KRW-BCH,KRW-NEAR,KRW-APT;KRW-AAVE,KRW-VET,KRW-ETC;KRW-ALGO,KRW-ARB;KRW-ATOM,KRW-STX,KRW-THETA;KRW-IMX,KRW-GRT,KRW-SEI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SAND,KRW-EOS,KRW-XTZ;KRW-IOTA,KRW-FLOW,KRW-ENS;KRW-NEO,KRW-MANA,KRW-AXS;KRW-CHZ,KRW-XEC,KRW-MINA;KRW-KAVA,KRW-1INCH,KRW-ZRO;KRW-BLUR,KRW-TFUEL,KRW-ASTR;KRW-ZIL,KRW-ZRX,KRW-JST;KRW-GLM,KRW-ID,KRW-BAT;KRW-CELO,KRW-ANKR,KRW-QTUM;KRW-SC,KRW-GAS,KRW-GMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ELF,KRW-T,KRW-MASK;KRW-POLYX,KRW-HIVE,KRW-ONT;KRW-SXP,KRW-STORJ,KRW-SNT;KRW-LSK,KRW-CVC,KRW-POWR;KRW-IQ,KRW-IOST,KRW-STPT;KRW-STRAX,KRW-ONG,KRW-PUNDIX;KRW-STEEM,KRW-KNC,KRW-ARK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3381,11 +3413,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3395,7 +3436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3409,6 +3450,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3748,7 +3792,7 @@
   <dimension ref="B1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3841,7 +3885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1">
+    <row r="7" spans="2:8" ht="30" customHeight="1" thickBot="1">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3853,6 +3897,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1">
@@ -3868,6 +3915,9 @@
       <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1">
       <c r="B9" s="1" t="s">
@@ -3882,6 +3932,9 @@
       <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1">
       <c r="B10" s="1" t="s">
@@ -3895,6 +3948,9 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1">
@@ -4409,6 +4465,2570 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76AF80E-437F-0244-B769-D067FE1B7DB0}">
+  <dimension ref="A2:F311"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>965</v>
+      </c>
+      <c r="B7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>923</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>732</v>
+      </c>
+      <c r="B17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>830</v>
+      </c>
+      <c r="B21" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>897</v>
+      </c>
+      <c r="B23" t="s">
+        <v>898</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>901</v>
+      </c>
+      <c r="B25" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>975</v>
+      </c>
+      <c r="B26" t="s">
+        <v>976</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>573</v>
+      </c>
+      <c r="B27" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>969</v>
+      </c>
+      <c r="B29" t="s">
+        <v>970</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>612</v>
+      </c>
+      <c r="B30" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>664</v>
+      </c>
+      <c r="B33" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>887</v>
+      </c>
+      <c r="B35" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>936</v>
+      </c>
+      <c r="B36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>479</v>
+      </c>
+      <c r="B37" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>858</v>
+      </c>
+      <c r="B38" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>546</v>
+      </c>
+      <c r="B40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>581</v>
+      </c>
+      <c r="B44" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>608</v>
+      </c>
+      <c r="B45" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>578</v>
+      </c>
+      <c r="B46" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>728</v>
+      </c>
+      <c r="B49" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>500</v>
+      </c>
+      <c r="B50" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>589</v>
+      </c>
+      <c r="B51" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>526</v>
+      </c>
+      <c r="B54" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>715</v>
+      </c>
+      <c r="B62" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>833</v>
+      </c>
+      <c r="B63" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>471</v>
+      </c>
+      <c r="B66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>875</v>
+      </c>
+      <c r="B67" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>995</v>
+      </c>
+      <c r="B69" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>837</v>
+      </c>
+      <c r="B70" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>679</v>
+      </c>
+      <c r="B72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>447</v>
+      </c>
+      <c r="B75" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>767</v>
+      </c>
+      <c r="B76" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>530</v>
+      </c>
+      <c r="B77" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B78" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>835</v>
+      </c>
+      <c r="B80" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>783</v>
+      </c>
+      <c r="B81" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>434</v>
+      </c>
+      <c r="B82" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>826</v>
+      </c>
+      <c r="B83" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>757</v>
+      </c>
+      <c r="B84" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>674</v>
+      </c>
+      <c r="B87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>596</v>
+      </c>
+      <c r="B88" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>643</v>
+      </c>
+      <c r="B90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>629</v>
+      </c>
+      <c r="B94" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>822</v>
+      </c>
+      <c r="B96" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>424</v>
+      </c>
+      <c r="B97" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>610</v>
+      </c>
+      <c r="B98" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>730</v>
+      </c>
+      <c r="B99" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>893</v>
+      </c>
+      <c r="B102" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>885</v>
+      </c>
+      <c r="B103" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>422</v>
+      </c>
+      <c r="B106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>397</v>
+      </c>
+      <c r="B107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>839</v>
+      </c>
+      <c r="B110" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>871</v>
+      </c>
+      <c r="B111" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>563</v>
+      </c>
+      <c r="B113" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>919</v>
+      </c>
+      <c r="B115" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>636</v>
+      </c>
+      <c r="B116" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>473</v>
+      </c>
+      <c r="B117" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>868</v>
+      </c>
+      <c r="B118" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>973</v>
+      </c>
+      <c r="B119" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>516</v>
+      </c>
+      <c r="B120" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>520</v>
+      </c>
+      <c r="B121" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>694</v>
+      </c>
+      <c r="B123" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>915</v>
+      </c>
+      <c r="B124" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>622</v>
+      </c>
+      <c r="B126" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>401</v>
+      </c>
+      <c r="B128" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>416</v>
+      </c>
+      <c r="B129" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>755</v>
+      </c>
+      <c r="B131" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>399</v>
+      </c>
+      <c r="B132" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>852</v>
+      </c>
+      <c r="B134" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>323</v>
+      </c>
+      <c r="B135" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>437</v>
+      </c>
+      <c r="B136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>845</v>
+      </c>
+      <c r="B137" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>793</v>
+      </c>
+      <c r="B138" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>985</v>
+      </c>
+      <c r="B139" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>746</v>
+      </c>
+      <c r="B140" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>327</v>
+      </c>
+      <c r="B144" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>638</v>
+      </c>
+      <c r="B146" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>569</v>
+      </c>
+      <c r="B147" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>778</v>
+      </c>
+      <c r="B148" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>508</v>
+      </c>
+      <c r="B149" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>594</v>
+      </c>
+      <c r="B151" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>490</v>
+      </c>
+      <c r="B152" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>502</v>
+      </c>
+      <c r="B153" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>535</v>
+      </c>
+      <c r="B155" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>860</v>
+      </c>
+      <c r="B157" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>406</v>
+      </c>
+      <c r="B159" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>548</v>
+      </c>
+      <c r="B160" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>991</v>
+      </c>
+      <c r="B161" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>889</v>
+      </c>
+      <c r="B162" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>877</v>
+      </c>
+      <c r="B164" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>911</v>
+      </c>
+      <c r="B165" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>510</v>
+      </c>
+      <c r="B166" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>592</v>
+      </c>
+      <c r="B167" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>776</v>
+      </c>
+      <c r="B170" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>427</v>
+      </c>
+      <c r="B171" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>926</v>
+      </c>
+      <c r="B172" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>753</v>
+      </c>
+      <c r="B173" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B174" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>761</v>
+      </c>
+      <c r="B175" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>841</v>
+      </c>
+      <c r="B176" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>475</v>
+      </c>
+      <c r="B177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>951</v>
+      </c>
+      <c r="B179" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>457</v>
+      </c>
+      <c r="B180" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>430</v>
+      </c>
+      <c r="B181" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>696</v>
+      </c>
+      <c r="B182" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>736</v>
+      </c>
+      <c r="B183" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>824</v>
+      </c>
+      <c r="B184" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>541</v>
+      </c>
+      <c r="B185" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>620</v>
+      </c>
+      <c r="B187" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>350</v>
+      </c>
+      <c r="B188" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>560</v>
+      </c>
+      <c r="B189" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>104</v>
+      </c>
+      <c r="B190" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>651</v>
+      </c>
+      <c r="B191" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>941</v>
+      </c>
+      <c r="B192" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>550</v>
+      </c>
+      <c r="B193" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>420</v>
+      </c>
+      <c r="B194" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>393</v>
+      </c>
+      <c r="B195" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>121</v>
+      </c>
+      <c r="B196" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>587</v>
+      </c>
+      <c r="B198" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>383</v>
+      </c>
+      <c r="B199" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>705</v>
+      </c>
+      <c r="B200" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>321</v>
+      </c>
+      <c r="B201" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>847</v>
+      </c>
+      <c r="B202" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>943</v>
+      </c>
+      <c r="B203" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>843</v>
+      </c>
+      <c r="B204" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>147</v>
+      </c>
+      <c r="B205" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>781</v>
+      </c>
+      <c r="B206" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>228</v>
+      </c>
+      <c r="B208" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>957</v>
+      </c>
+      <c r="B209" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>365</v>
+      </c>
+      <c r="B211" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>979</v>
+      </c>
+      <c r="B212" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>797</v>
+      </c>
+      <c r="B213" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>251</v>
+      </c>
+      <c r="B214" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>828</v>
+      </c>
+      <c r="B215" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>907</v>
+      </c>
+      <c r="B217" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>454</v>
+      </c>
+      <c r="B218" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>409</v>
+      </c>
+      <c r="B219" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>185</v>
+      </c>
+      <c r="B220" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>949</v>
+      </c>
+      <c r="B221" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>239</v>
+      </c>
+      <c r="B222" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>306</v>
+      </c>
+      <c r="B223" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>255</v>
+      </c>
+      <c r="B224" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>118</v>
+      </c>
+      <c r="B225" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>647</v>
+      </c>
+      <c r="B226" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>748</v>
+      </c>
+      <c r="B227" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>709</v>
+      </c>
+      <c r="B228" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>717</v>
+      </c>
+      <c r="B229" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>141</v>
+      </c>
+      <c r="B230" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>144</v>
+      </c>
+      <c r="B231" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>340</v>
+      </c>
+      <c r="B232" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>469</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>604</v>
+      </c>
+      <c r="B235" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>177</v>
+      </c>
+      <c r="B237" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>938</v>
+      </c>
+      <c r="B238" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>917</v>
+      </c>
+      <c r="B239" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>724</v>
+      </c>
+      <c r="B240" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>854</v>
+      </c>
+      <c r="B241" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>662</v>
+      </c>
+      <c r="B242" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>759</v>
+      </c>
+      <c r="B244" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>909</v>
+      </c>
+      <c r="B245" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>274</v>
+      </c>
+      <c r="B246" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>556</v>
+      </c>
+      <c r="B247" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>961</v>
+      </c>
+      <c r="B248" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>634</v>
+      </c>
+      <c r="B249" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>953</v>
+      </c>
+      <c r="B250" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>993</v>
+      </c>
+      <c r="B251" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>813</v>
+      </c>
+      <c r="B252" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>296</v>
+      </c>
+      <c r="B253" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>879</v>
+      </c>
+      <c r="B254" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>624</v>
+      </c>
+      <c r="B255" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>811</v>
+      </c>
+      <c r="B256" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>800</v>
+      </c>
+      <c r="B257" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>657</v>
+      </c>
+      <c r="B258" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>94</v>
+      </c>
+      <c r="B259" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>300</v>
+      </c>
+      <c r="B260" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>817</v>
+      </c>
+      <c r="B261" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>698</v>
+      </c>
+      <c r="B262" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>367</v>
+      </c>
+      <c r="B263" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>80</v>
+      </c>
+      <c r="B264" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>774</v>
+      </c>
+      <c r="B265" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>138</v>
+      </c>
+      <c r="B266" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>512</v>
+      </c>
+      <c r="B267" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>372</v>
+      </c>
+      <c r="B268" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>253</v>
+      </c>
+      <c r="B269" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>283</v>
+      </c>
+      <c r="B270" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>304</v>
+      </c>
+      <c r="B271" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>576</v>
+      </c>
+      <c r="B272" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>804</v>
+      </c>
+      <c r="B273" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>395</v>
+      </c>
+      <c r="B274" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>346</v>
+      </c>
+      <c r="B275" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>701</v>
+      </c>
+      <c r="B276" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>107</v>
+      </c>
+      <c r="B277" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>129</v>
+      </c>
+      <c r="B278" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>87</v>
+      </c>
+      <c r="B279" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>506</v>
+      </c>
+      <c r="B280" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>934</v>
+      </c>
+      <c r="B281" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>692</v>
+      </c>
+      <c r="B282" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>743</v>
+      </c>
+      <c r="B283" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>126</v>
+      </c>
+      <c r="B284" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>791</v>
+      </c>
+      <c r="B285" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>445</v>
+      </c>
+      <c r="B286" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>891</v>
+      </c>
+      <c r="B287" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>281</v>
+      </c>
+      <c r="B288" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>616</v>
+      </c>
+      <c r="B289" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>231</v>
+      </c>
+      <c r="B290" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>237</v>
+      </c>
+      <c r="B291" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>418</v>
+      </c>
+      <c r="B292" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>786</v>
+      </c>
+      <c r="B293" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>649</v>
+      </c>
+      <c r="B294" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>565</v>
+      </c>
+      <c r="B295" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>862</v>
+      </c>
+      <c r="B296" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>905</v>
+      </c>
+      <c r="B297" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>571</v>
+      </c>
+      <c r="B298" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>618</v>
+      </c>
+      <c r="B299" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>955</v>
+      </c>
+      <c r="B300" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>235</v>
+      </c>
+      <c r="B301" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>514</v>
+      </c>
+      <c r="B302" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>849</v>
+      </c>
+      <c r="B303" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>182</v>
+      </c>
+      <c r="B305" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>528</v>
+      </c>
+      <c r="B306" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>27</v>
+      </c>
+      <c r="B307" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>465</v>
+      </c>
+      <c r="B308" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>640</v>
+      </c>
+      <c r="B309" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>971</v>
+      </c>
+      <c r="B310" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>379</v>
+      </c>
+      <c r="B311" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB809947-5868-C945-A3AF-72B6816E4DD7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
@@ -7773,2556 +10393,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76AF80E-437F-0244-B769-D067FE1B7DB0}">
-  <dimension ref="A2:F311"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>881</v>
-      </c>
-      <c r="B2" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>999</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>741</v>
-      </c>
-      <c r="B6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>965</v>
-      </c>
-      <c r="B7" t="s">
-        <v>966</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>924</v>
-      </c>
-      <c r="B8" t="s">
-        <v>925</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>719</v>
-      </c>
-      <c r="B9" t="s">
-        <v>720</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>789</v>
-      </c>
-      <c r="B10" t="s">
-        <v>790</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>580</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B15" t="s">
-        <v>499</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>923</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>732</v>
-      </c>
-      <c r="B17" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>830</v>
-      </c>
-      <c r="B21" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>477</v>
-      </c>
-      <c r="B22" t="s">
-        <v>478</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>897</v>
-      </c>
-      <c r="B23" t="s">
-        <v>898</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>901</v>
-      </c>
-      <c r="B25" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>975</v>
-      </c>
-      <c r="B26" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>573</v>
-      </c>
-      <c r="B27" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>504</v>
-      </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>969</v>
-      </c>
-      <c r="B29" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>612</v>
-      </c>
-      <c r="B30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>443</v>
-      </c>
-      <c r="B32" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>664</v>
-      </c>
-      <c r="B33" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>481</v>
-      </c>
-      <c r="B34" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>887</v>
-      </c>
-      <c r="B35" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>936</v>
-      </c>
-      <c r="B36" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>479</v>
-      </c>
-      <c r="B37" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>858</v>
-      </c>
-      <c r="B38" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>546</v>
-      </c>
-      <c r="B40" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>325</v>
-      </c>
-      <c r="B41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>352</v>
-      </c>
-      <c r="B42" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>581</v>
-      </c>
-      <c r="B44" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>608</v>
-      </c>
-      <c r="B45" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>578</v>
-      </c>
-      <c r="B46" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>728</v>
-      </c>
-      <c r="B49" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>500</v>
-      </c>
-      <c r="B50" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>589</v>
-      </c>
-      <c r="B51" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>544</v>
-      </c>
-      <c r="B52" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>526</v>
-      </c>
-      <c r="B54" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>266</v>
-      </c>
-      <c r="B55" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>492</v>
-      </c>
-      <c r="B56" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>715</v>
-      </c>
-      <c r="B62" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>833</v>
-      </c>
-      <c r="B63" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>298</v>
-      </c>
-      <c r="B64" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>319</v>
-      </c>
-      <c r="B65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>471</v>
-      </c>
-      <c r="B66" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>875</v>
-      </c>
-      <c r="B67" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>391</v>
-      </c>
-      <c r="B68" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>995</v>
-      </c>
-      <c r="B69" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>837</v>
-      </c>
-      <c r="B70" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>270</v>
-      </c>
-      <c r="B71" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>679</v>
-      </c>
-      <c r="B72" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>447</v>
-      </c>
-      <c r="B75" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>767</v>
-      </c>
-      <c r="B76" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>530</v>
-      </c>
-      <c r="B77" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>344</v>
-      </c>
-      <c r="B78" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>835</v>
-      </c>
-      <c r="B80" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>783</v>
-      </c>
-      <c r="B81" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>434</v>
-      </c>
-      <c r="B82" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>826</v>
-      </c>
-      <c r="B83" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>757</v>
-      </c>
-      <c r="B84" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>218</v>
-      </c>
-      <c r="B85" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>674</v>
-      </c>
-      <c r="B87" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>596</v>
-      </c>
-      <c r="B88" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>643</v>
-      </c>
-      <c r="B90" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>494</v>
-      </c>
-      <c r="B91" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>629</v>
-      </c>
-      <c r="B94" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>822</v>
-      </c>
-      <c r="B96" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>424</v>
-      </c>
-      <c r="B97" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>610</v>
-      </c>
-      <c r="B98" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>730</v>
-      </c>
-      <c r="B99" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>354</v>
-      </c>
-      <c r="B100" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>174</v>
-      </c>
-      <c r="B101" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>893</v>
-      </c>
-      <c r="B102" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>885</v>
-      </c>
-      <c r="B103" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>241</v>
-      </c>
-      <c r="B104" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>262</v>
-      </c>
-      <c r="B105" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>422</v>
-      </c>
-      <c r="B106" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>397</v>
-      </c>
-      <c r="B107" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>247</v>
-      </c>
-      <c r="B109" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>839</v>
-      </c>
-      <c r="B110" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>871</v>
-      </c>
-      <c r="B111" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>449</v>
-      </c>
-      <c r="B112" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>563</v>
-      </c>
-      <c r="B113" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>316</v>
-      </c>
-      <c r="B114" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>919</v>
-      </c>
-      <c r="B115" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>636</v>
-      </c>
-      <c r="B116" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>473</v>
-      </c>
-      <c r="B117" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>868</v>
-      </c>
-      <c r="B118" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>973</v>
-      </c>
-      <c r="B119" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>516</v>
-      </c>
-      <c r="B120" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>520</v>
-      </c>
-      <c r="B121" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>190</v>
-      </c>
-      <c r="B122" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>694</v>
-      </c>
-      <c r="B123" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>915</v>
-      </c>
-      <c r="B124" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>249</v>
-      </c>
-      <c r="B125" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>622</v>
-      </c>
-      <c r="B126" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>257</v>
-      </c>
-      <c r="B127" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>401</v>
-      </c>
-      <c r="B128" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>416</v>
-      </c>
-      <c r="B129" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>110</v>
-      </c>
-      <c r="B130" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>755</v>
-      </c>
-      <c r="B131" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>399</v>
-      </c>
-      <c r="B132" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>272</v>
-      </c>
-      <c r="B133" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>852</v>
-      </c>
-      <c r="B134" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>323</v>
-      </c>
-      <c r="B135" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>437</v>
-      </c>
-      <c r="B136" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>845</v>
-      </c>
-      <c r="B137" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>793</v>
-      </c>
-      <c r="B138" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>985</v>
-      </c>
-      <c r="B139" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>746</v>
-      </c>
-      <c r="B140" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>72</v>
-      </c>
-      <c r="B142" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>327</v>
-      </c>
-      <c r="B144" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>278</v>
-      </c>
-      <c r="B145" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>638</v>
-      </c>
-      <c r="B146" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>569</v>
-      </c>
-      <c r="B147" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>778</v>
-      </c>
-      <c r="B148" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>508</v>
-      </c>
-      <c r="B149" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>329</v>
-      </c>
-      <c r="B150" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>594</v>
-      </c>
-      <c r="B151" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>490</v>
-      </c>
-      <c r="B152" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>502</v>
-      </c>
-      <c r="B153" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>202</v>
-      </c>
-      <c r="B154" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>535</v>
-      </c>
-      <c r="B155" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>860</v>
-      </c>
-      <c r="B157" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>160</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>406</v>
-      </c>
-      <c r="B159" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>548</v>
-      </c>
-      <c r="B160" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>991</v>
-      </c>
-      <c r="B161" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>889</v>
-      </c>
-      <c r="B162" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>245</v>
-      </c>
-      <c r="B163" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>877</v>
-      </c>
-      <c r="B164" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>911</v>
-      </c>
-      <c r="B165" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>510</v>
-      </c>
-      <c r="B166" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>592</v>
-      </c>
-      <c r="B167" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>302</v>
-      </c>
-      <c r="B168" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>331</v>
-      </c>
-      <c r="B169" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>776</v>
-      </c>
-      <c r="B170" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>427</v>
-      </c>
-      <c r="B171" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>926</v>
-      </c>
-      <c r="B172" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>753</v>
-      </c>
-      <c r="B173" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>209</v>
-      </c>
-      <c r="B174" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>761</v>
-      </c>
-      <c r="B175" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>841</v>
-      </c>
-      <c r="B176" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>475</v>
-      </c>
-      <c r="B177" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>163</v>
-      </c>
-      <c r="B178" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>951</v>
-      </c>
-      <c r="B179" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>457</v>
-      </c>
-      <c r="B180" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>430</v>
-      </c>
-      <c r="B181" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>696</v>
-      </c>
-      <c r="B182" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>736</v>
-      </c>
-      <c r="B183" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>824</v>
-      </c>
-      <c r="B184" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>541</v>
-      </c>
-      <c r="B185" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>132</v>
-      </c>
-      <c r="B186" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>620</v>
-      </c>
-      <c r="B187" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>350</v>
-      </c>
-      <c r="B188" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>560</v>
-      </c>
-      <c r="B189" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>104</v>
-      </c>
-      <c r="B190" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>651</v>
-      </c>
-      <c r="B191" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>941</v>
-      </c>
-      <c r="B192" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>550</v>
-      </c>
-      <c r="B193" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>420</v>
-      </c>
-      <c r="B194" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>393</v>
-      </c>
-      <c r="B195" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
-        <v>121</v>
-      </c>
-      <c r="B196" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>403</v>
-      </c>
-      <c r="B197" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>587</v>
-      </c>
-      <c r="B198" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
-        <v>383</v>
-      </c>
-      <c r="B199" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>705</v>
-      </c>
-      <c r="B200" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>321</v>
-      </c>
-      <c r="B201" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>847</v>
-      </c>
-      <c r="B202" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>943</v>
-      </c>
-      <c r="B203" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>843</v>
-      </c>
-      <c r="B204" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>147</v>
-      </c>
-      <c r="B205" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
-        <v>781</v>
-      </c>
-      <c r="B206" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>413</v>
-      </c>
-      <c r="B207" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>228</v>
-      </c>
-      <c r="B208" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
-        <v>957</v>
-      </c>
-      <c r="B209" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>389</v>
-      </c>
-      <c r="B210" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>365</v>
-      </c>
-      <c r="B211" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>979</v>
-      </c>
-      <c r="B212" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
-        <v>797</v>
-      </c>
-      <c r="B213" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>251</v>
-      </c>
-      <c r="B214" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>828</v>
-      </c>
-      <c r="B215" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>223</v>
-      </c>
-      <c r="B216" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>907</v>
-      </c>
-      <c r="B217" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
-        <v>454</v>
-      </c>
-      <c r="B218" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
-        <v>409</v>
-      </c>
-      <c r="B219" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
-        <v>185</v>
-      </c>
-      <c r="B220" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>949</v>
-      </c>
-      <c r="B221" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
-        <v>239</v>
-      </c>
-      <c r="B222" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>306</v>
-      </c>
-      <c r="B223" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>255</v>
-      </c>
-      <c r="B224" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>118</v>
-      </c>
-      <c r="B225" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>647</v>
-      </c>
-      <c r="B226" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>748</v>
-      </c>
-      <c r="B227" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>709</v>
-      </c>
-      <c r="B228" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>717</v>
-      </c>
-      <c r="B229" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>141</v>
-      </c>
-      <c r="B230" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>144</v>
-      </c>
-      <c r="B231" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>340</v>
-      </c>
-      <c r="B232" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>469</v>
-      </c>
-      <c r="B233" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>604</v>
-      </c>
-      <c r="B235" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>463</v>
-      </c>
-      <c r="B236" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>177</v>
-      </c>
-      <c r="B237" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>938</v>
-      </c>
-      <c r="B238" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>917</v>
-      </c>
-      <c r="B239" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>724</v>
-      </c>
-      <c r="B240" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>854</v>
-      </c>
-      <c r="B241" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>662</v>
-      </c>
-      <c r="B242" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>276</v>
-      </c>
-      <c r="B243" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>759</v>
-      </c>
-      <c r="B244" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>909</v>
-      </c>
-      <c r="B245" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>274</v>
-      </c>
-      <c r="B246" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>556</v>
-      </c>
-      <c r="B247" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>961</v>
-      </c>
-      <c r="B248" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>634</v>
-      </c>
-      <c r="B249" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>953</v>
-      </c>
-      <c r="B250" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>993</v>
-      </c>
-      <c r="B251" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>813</v>
-      </c>
-      <c r="B252" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>296</v>
-      </c>
-      <c r="B253" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>879</v>
-      </c>
-      <c r="B254" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>624</v>
-      </c>
-      <c r="B255" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>811</v>
-      </c>
-      <c r="B256" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>800</v>
-      </c>
-      <c r="B257" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>657</v>
-      </c>
-      <c r="B258" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>94</v>
-      </c>
-      <c r="B259" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>300</v>
-      </c>
-      <c r="B260" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>817</v>
-      </c>
-      <c r="B261" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>698</v>
-      </c>
-      <c r="B262" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>367</v>
-      </c>
-      <c r="B263" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>80</v>
-      </c>
-      <c r="B264" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>774</v>
-      </c>
-      <c r="B265" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>138</v>
-      </c>
-      <c r="B266" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>512</v>
-      </c>
-      <c r="B267" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>372</v>
-      </c>
-      <c r="B268" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>253</v>
-      </c>
-      <c r="B269" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>283</v>
-      </c>
-      <c r="B270" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>304</v>
-      </c>
-      <c r="B271" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>576</v>
-      </c>
-      <c r="B272" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>804</v>
-      </c>
-      <c r="B273" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>395</v>
-      </c>
-      <c r="B274" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>346</v>
-      </c>
-      <c r="B275" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>701</v>
-      </c>
-      <c r="B276" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>107</v>
-      </c>
-      <c r="B277" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>129</v>
-      </c>
-      <c r="B278" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>87</v>
-      </c>
-      <c r="B279" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>506</v>
-      </c>
-      <c r="B280" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>934</v>
-      </c>
-      <c r="B281" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>692</v>
-      </c>
-      <c r="B282" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>743</v>
-      </c>
-      <c r="B283" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>126</v>
-      </c>
-      <c r="B284" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>791</v>
-      </c>
-      <c r="B285" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>445</v>
-      </c>
-      <c r="B286" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>891</v>
-      </c>
-      <c r="B287" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>281</v>
-      </c>
-      <c r="B288" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>616</v>
-      </c>
-      <c r="B289" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>231</v>
-      </c>
-      <c r="B290" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>237</v>
-      </c>
-      <c r="B291" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>418</v>
-      </c>
-      <c r="B292" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>786</v>
-      </c>
-      <c r="B293" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>649</v>
-      </c>
-      <c r="B294" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>565</v>
-      </c>
-      <c r="B295" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
-        <v>862</v>
-      </c>
-      <c r="B296" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
-        <v>905</v>
-      </c>
-      <c r="B297" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>571</v>
-      </c>
-      <c r="B298" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
-        <v>618</v>
-      </c>
-      <c r="B299" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>955</v>
-      </c>
-      <c r="B300" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>235</v>
-      </c>
-      <c r="B301" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>514</v>
-      </c>
-      <c r="B302" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>849</v>
-      </c>
-      <c r="B303" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>4</v>
-      </c>
-      <c r="B304" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>182</v>
-      </c>
-      <c r="B305" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
-        <v>528</v>
-      </c>
-      <c r="B306" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
-        <v>27</v>
-      </c>
-      <c r="B307" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
-        <v>465</v>
-      </c>
-      <c r="B308" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
-        <v>640</v>
-      </c>
-      <c r="B309" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
-        <v>971</v>
-      </c>
-      <c r="B310" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
-        <v>379</v>
-      </c>
-      <c r="B311" t="s">
-        <v>380</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C539F7-5732-ED49-9F6D-14A46AFB1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FED610-E80F-DB4F-8957-E89C6BA98E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="37300" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
@@ -4468,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76AF80E-437F-0244-B769-D067FE1B7DB0}">
   <dimension ref="A2:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63924cf84bb7f716/바탕 화면/DB금융공모전/데이터분석/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FED610-E80F-DB4F-8957-E89C6BA98E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="37300" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
+    <workbookView xWindow="1470" yWindow="1013" windowWidth="18165" windowHeight="11767" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="업비트_빗썸" sheetId="1" r:id="rId1"/>
@@ -3795,10 +3795,10 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="13.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="12" width="13.71875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.71875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="30" customHeight="1">
@@ -4468,11 +4468,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76AF80E-437F-0244-B769-D067FE1B7DB0}">
   <dimension ref="A2:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.149999999999999"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -7036,10 +7036,10 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="13.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="11" width="13.71875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.71875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">

--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63924cf84bb7f716/바탕 화면/DB금융공모전/데이터분석/StockDream/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FED610-E80F-DB4F-8957-E89C6BA98E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD29CC-CF73-F24A-A81D-5CB159AD3D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1013" windowWidth="18165" windowHeight="11767" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
+    <workbookView xWindow="67200" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="업비트_빗썸" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1044">
   <si>
     <t>유니스왑</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3363,6 +3363,26 @@
   </si>
   <si>
     <t>KRW-ELF,KRW-T,KRW-MASK;KRW-POLYX,KRW-HIVE,KRW-ONT;KRW-SXP,KRW-STORJ,KRW-SNT;KRW-LSK,KRW-CVC,KRW-POWR;KRW-IQ,KRW-IOST,KRW-STPT;KRW-STRAX,KRW-ONG,KRW-PUNDIX;KRW-STEEM,KRW-KNC,KRW-ARK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 편하게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAOUSDT,LTCUSDT,YFIUSDT;MKRUSDT,PAXGUSDT,WBETHUSDT;USDCUSDT,OMUSDT,QNTUSDT;DEXEUSDT,ARUSDT,BNSOLUSDT;INJUSDT,FDUSDUSDT,UNIUSDT;ORDIUSDT,ZENUSDT,RAYUSDT;COMPUSDT,RUNEUSDT,EGLDUSDT;TONUSDT,RENDERUSDT,TRBUSDT;WLDUSDT,ICPUSDT,FILUSDT;WIFUSDT,LDOUSDT,ZECUSDT;DASHUSDT,METISUSDT,ENAUSDT;TIAUSDT,USUALUSDT,EIGENUSDT;SSVUSDT,JUPUSDT,GNOUSDT;BANANAUSDT,BIFIUSDT,VANAUSDT;IOUSDT,KSMUSDT,ILVUSDT;PENDLEUSDT,LPTUSDT,OPUSDT;FETUSDT,JTOUSDT,GMXUSDT;CRVUSDT,FTTUSDT,AIXBTUSDT;ETHFIUSDT,AUCTIONUSDT,FARMUSDT;MOVEUSDT,OMNIUSDT,MEUSDT;OGUSDT,SUSDT,ARKMUSDT;BADGERUSDT,DYDXUSDT,SUSHIUSDT;CAKEUSDT,XVSUSDT,SANTOSUSDT;ALCXUSDT,MOVRUSDT,NMRUSDT;APEUSDT,DCRUSDT,PNUTUSDT;FXSUSDT,BELUSDT,SNXUSDT;SAGAUSDT,PYRUSDT,CVXUSDT;RPLUSDT,PHBUSDT,CYBERUSDT;AGLDUSDT,MLNUSDT,KDAUSDT;ACHUSDT,MANTAUSDT,EURIUSDT</t>
+  </si>
+  <si>
+    <t>WUSDT,POLUSDT,LQTYUSDT;PROMUSDT,RONINUSDT,CREAMUSDT;LAZIOUSDT,ORCAUSDT,BIOUSDT;RLCUSDT,TNSRUSDT,THEUSDT;ACEUSDT,AIUSDT,COWUSDT;CETUSUSDT,JASMYUSDT,ACTUSDT;SCRUSDT,SUPERUSDT,DEGOUSDT;HIGHUSDT,AVAUSDT,UMAUSDT;LUMIAUSDT,DYMUSDT,STRKUSDT;WINGUSDT,FLUXUSDT,FORTHUSDT;API3USDT,NEXOUSDT,TWTUSDT;ACXUSDT,LITUSDT,AEVOUSDT;CGPTUSDT,COOKIEUSDT,ANIMEUSDT;PHAUSDT,CFXUSDT,ALICEUSDT;SOLVUSDT,BALUSDT,DUSDT;SKLUSDT,RADUSDT,XAIUSDT;PENGUUSDT,ZKUSDT,AXLUSDT;PYTHUSDT,BANDUSDT,ALPINEUSDT;LUNAUSDT,HOOKUSDT,PORTOUSDT;FIROUSDT,BARUSDT,KAIAUSDT;ERNUSDT,FIDAUSDT,MAGICUSDT;GALAUSDT,ATMUSDT,STGUSDT;YGGUSDT,CITYUSDT,GNSUSDT;XNOUSDT,TKOUSDT,ACMUSDT;SYNUSDT,TUSDUSDT,FISUSDT;JUVUSDT,ASRUSDT,BBUSDT;PORTALUSDT,CTKUSDT,USDPUSDT;PERPUSDT,MTLUSDT,PIXELUSDT;SCRTUSDT,EDUUSDT,CHRUSDT;VICUSDT,DIAUSDT,CTXCUSDT</t>
+  </si>
+  <si>
+    <t>IDEXUSDT,REIUSDT,CELRUSDT;BETAUSDT,NOTUSDT,RVNUSDT;DGBUSDT,CKBUSDT,FIOUSDT;USTCUSDT,NEIROUSDT,PDAUSDT;SUNUSDT,QUICKUSDT,DATAUSDT;TLMUSDT,AMBUSDT,LEVERUSDT;QKCUSDT,1MBABYDOGEUSDT,COSUSDT;QIUSDT,MBLUSDT,HMSTRUSDT;STMXUSDT,TROYUSDT,HOTUSDT;LINAUSDT,VITEUSDT,1000SATSUSDT;FLOKIUSDT,SLPUSDT,PEPEUSDT;DENTUSDT,FUNUSDT,BONKUSDT;DOGSUSDT,LUNCUSDT,WINUSDT;BTTCUSDT</t>
+  </si>
+  <si>
+    <t>NFPUSDT,OSMOUSDT,ROSEUSDT;GHSTUSDT,ALTUSDT,LISTAUSDT;BICOUSDT,HFTUSDT,ENJUSDT;MBOXUSDT,VANRYUSDT,GTCUSDT;COTIUSDT,CATIUSDT,LRCUSDT;CHESSUSDT,JOEUSDT,BURGERUSDT;NTRNUSDT,BAKEUSDT,SLFUSDT;VELODROMEUSDT,SFPUSDT,GLMRUSDT;PROSUSDT,COMBOUSDT,HIFIUSDT;VOXELUSDT,C98USDT,BNXUSDT;WOOUSDT,RAREUSDT,ADXUSDT;RSRUSDT,BNTUSDT,TRUUSDT;DFUSDT,CLVUSDT,OXTUSDT;VIBUSDT,ACAUSDT,ATAUSDT;AEURUSDT,GUSDT,MAVUSDT;PEOPLEUSDT,NULSUSDT,OGNUSDT;AUDIOUSDT,ICXUSDT,BEAMXUSDT;DUSKUSDT,1000CATUSDT,KMDUSDT;DODOUSDT,CTSIUSDT,UTKUSDT;UFTUSDT,ONEUSDT,SPELLUSDT;MEMEUSDT,ALPHAUSDT,PIVXUSDT;TURBOUSDT,ALPACAUSDT,HARDUSDT;WANUSDT,LTOUSDT,VIDTUSDT;XVGUSDT,REZUSDT,ARDRUSDT;SYSUSDT,LOKAUSDT,REQUSDT;RDNTUSDT,MDTUSDT,IOTXUSDT;ARPAUSDT,RIFUSDT,NKNUSDT;BOMEUSDT,VTHOUSDT,PONDUSDT;WAXPUSDT,FLMUSDT,BSWUSDT;AERGOUSDT,AMPUSDT,ASTUSDT</t>
+  </si>
+  <si>
+    <t>BTCUSDT,ETHUSDT,XRPUSDT;DOGEUSDT,SOLUSDT,ADAUSDT;TRXUSDT,AVAXUSDT;LINKUSDT,SUIUSDT,XLMUSDT;SHIBUSDT,HBARUSDT,DOTUSDT;BCHUSDT,NEARUSDT,APTUSDT;AAVEUSDT,VETUSDT,ETCUSDT;ALGOUSDT,ARBUSDT;ATOMUSDT,STXUSDT,THETAUSDT;IMXUSDT,GRTUSDT,SEIUSDT;SANDUSDT,EOSUSDT,XTZUSDT;IOTAUSDT,FLOWUSDT,ENSUSDT;NEOUSDT,MANAUSDT,AXSUSDT;CHZUSDT,XECUSDT,MINAUSDT;KAVAUSDT,1INCHUSDT,ZROUSDT;BLURUSDT,TFUELUSDT,ASTRUSDT;ZILUSDT,ZRXUSDT,JSTUSDT;GLMUSDT,IDUSDT,BATUSDT;CELOUSDT,ANKRUSDT,QTUMUSDT;SCUSDT,GASUSDT,GMTUSDT;ELFUSDT,TUSDT,MASKUSDT;POLYXUSDT,HIVEUSDT,ONTUSDT;SXPUSDT,STORJUSDT,SNTUSDT;LSKUSDT,CVCUSDT,POWRUSDT;IQUSDT,IOSTUSDT,STPTUSDT;STRAXUSDT,ONGUSDT,PUNDIXUSDT;STEEMUSDT,KNCUSDT,ARKUSDT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3791,14 +3811,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044EA164-D648-B941-BFC4-3172F959F7EC}">
   <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="12" width="13.71875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.71875" style="1"/>
+    <col min="1" max="12" width="13.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="30" customHeight="1">
@@ -4468,11 +4488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76AF80E-437F-0244-B769-D067FE1B7DB0}">
   <dimension ref="A2:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -4790,55 +4810,73 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>664</v>
       </c>
       <c r="B33" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>481</v>
       </c>
       <c r="B34" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>887</v>
       </c>
       <c r="B35" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>936</v>
       </c>
       <c r="B36" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>479</v>
       </c>
       <c r="B37" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>858</v>
       </c>
       <c r="B38" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="E38" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -4846,7 +4884,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>546</v>
       </c>
@@ -4854,7 +4892,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>325</v>
       </c>
@@ -4862,7 +4900,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>352</v>
       </c>
@@ -4870,7 +4908,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -4878,7 +4916,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>581</v>
       </c>
@@ -4886,7 +4924,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>608</v>
       </c>
@@ -4894,7 +4932,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>578</v>
       </c>
@@ -4902,7 +4940,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -4910,7 +4948,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7036,10 +7074,10 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="13.71875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.71875" style="1"/>
+    <col min="1" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">

--- a/바낸 코인 리스트.xlsx
+++ b/바낸 코인 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD29CC-CF73-F24A-A81D-5CB159AD3D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B25DD-0800-504E-BA22-BC507BAF61C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{E1FBDC21-38DE-384B-AF34-C28AC7530EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="업비트_빗썸" sheetId="1" r:id="rId1"/>
@@ -3811,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044EA164-D648-B941-BFC4-3172F959F7EC}">
   <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4488,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76AF80E-437F-0244-B769-D067FE1B7DB0}">
   <dimension ref="A2:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
